--- a/data/trans_orig/P33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>390869</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>372165</v>
+        <v>373247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>403464</v>
+        <v>404167</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8663271769691135</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8248713256039486</v>
+        <v>0.8272699890428937</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.894244520331837</v>
+        <v>0.8958021986132788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>326</v>
@@ -764,19 +764,19 @@
         <v>330608</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>313555</v>
+        <v>311800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>348283</v>
+        <v>347096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7701679542278669</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.730441797077963</v>
+        <v>0.7263540075729159</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8113429245104669</v>
+        <v>0.8085781082376872</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>711</v>
@@ -785,19 +785,19 @@
         <v>721476</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>698410</v>
+        <v>695188</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>745831</v>
+        <v>744447</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8194441618106429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7932458872836435</v>
+        <v>0.7895866179328578</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8471057274544352</v>
+        <v>0.8455338647327681</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>60310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47715</v>
+        <v>47012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79014</v>
+        <v>77932</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1336728230308864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.105755479668163</v>
+        <v>0.1041978013867211</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1751286743960515</v>
+        <v>0.1727300109571062</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -835,19 +835,19 @@
         <v>98659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80984</v>
+        <v>82171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115712</v>
+        <v>117467</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2298320457721331</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1886570754895332</v>
+        <v>0.1914218917623128</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2695582029220371</v>
+        <v>0.2736459924270839</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>152</v>
@@ -856,19 +856,19 @@
         <v>158970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134615</v>
+        <v>135999</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>182036</v>
+        <v>185258</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.180555838189357</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1528942725455642</v>
+        <v>0.1544661352672317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2067541127163564</v>
+        <v>0.2104133820671421</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>574444</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>555300</v>
+        <v>553141</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>593481</v>
+        <v>592092</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8383437454261636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8104051516793807</v>
+        <v>0.807253507591203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8661264782039749</v>
+        <v>0.8640997425363309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>426</v>
@@ -981,19 +981,19 @@
         <v>459059</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>437069</v>
+        <v>437047</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>480251</v>
+        <v>479362</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7535547831347923</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7174576573161142</v>
+        <v>0.7174221702303268</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7883430562378601</v>
+        <v>0.7868834440337319</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>983</v>
@@ -1002,19 +1002,19 @@
         <v>1033503</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1004307</v>
+        <v>1004157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1063296</v>
+        <v>1061247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7984391458741482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7758840969727743</v>
+        <v>0.7757682124222811</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8214560133600971</v>
+        <v>0.8198730058396148</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>110769</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>91732</v>
+        <v>93121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129913</v>
+        <v>132072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1616562545738363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.133873521796025</v>
+        <v>0.1359002574636691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1895948483206192</v>
+        <v>0.1927464924087967</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -1052,19 +1052,19 @@
         <v>150132</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128940</v>
+        <v>129829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>172122</v>
+        <v>172144</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2464452168652077</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.21165694376214</v>
+        <v>0.213116555966268</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2825423426838858</v>
+        <v>0.2825778297696729</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>252</v>
@@ -1073,19 +1073,19 @@
         <v>260901</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>231108</v>
+        <v>233157</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>290097</v>
+        <v>290247</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2015608541258518</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.178543986639903</v>
+        <v>0.1801269941603852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2241159030272257</v>
+        <v>0.2242317875777189</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>557835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>538642</v>
+        <v>537390</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>577563</v>
+        <v>575097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8298397638736773</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.801288163217731</v>
+        <v>0.7994261178166305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8591870377974796</v>
+        <v>0.8555183896812343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>481</v>
@@ -1198,19 +1198,19 @@
         <v>514160</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>488251</v>
+        <v>490430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>536025</v>
+        <v>537900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7332470094547221</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6962984932149235</v>
+        <v>0.699405583751124</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7644289967769906</v>
+        <v>0.7671032192106045</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1008</v>
@@ -1219,19 +1219,19 @@
         <v>1071995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1039587</v>
+        <v>1038026</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1102303</v>
+        <v>1102663</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7805239445437001</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7569277681185989</v>
+        <v>0.7557907177117871</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8025911501763019</v>
+        <v>0.802853154925086</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>114385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94657</v>
+        <v>97123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>133578</v>
+        <v>134830</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1701602361263226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1408129622025203</v>
+        <v>0.1444816103187656</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.198711836782269</v>
+        <v>0.2005738821833693</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>176</v>
@@ -1269,19 +1269,19 @@
         <v>187050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>165185</v>
+        <v>163310</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>212959</v>
+        <v>210780</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2667529905452779</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2355710032230093</v>
+        <v>0.2328967807893955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3037015067850762</v>
+        <v>0.300594416248876</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>291</v>
@@ -1290,19 +1290,19 @@
         <v>301435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>271127</v>
+        <v>270767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>333843</v>
+        <v>335404</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2194760554562999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1974088498236981</v>
+        <v>0.197146845074914</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2430722318814012</v>
+        <v>0.2442092822882129</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>521640</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>501423</v>
+        <v>501272</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>538492</v>
+        <v>539696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8549697954316923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8218344159621205</v>
+        <v>0.8215867482605601</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8825904257495994</v>
+        <v>0.884562686968189</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>370</v>
@@ -1415,19 +1415,19 @@
         <v>425525</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>400046</v>
+        <v>402267</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>449008</v>
+        <v>449406</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6941538689801006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6525903596430759</v>
+        <v>0.6562123624083147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7324603295055431</v>
+        <v>0.7331098307662348</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>835</v>
@@ -1436,19 +1436,19 @@
         <v>947165</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>915613</v>
+        <v>915701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>978996</v>
+        <v>976302</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7743720914756377</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7485756346617178</v>
+        <v>0.7486478957832111</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8003953786451191</v>
+        <v>0.7981931880439795</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>88487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71635</v>
+        <v>70431</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108704</v>
+        <v>108855</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1450302045683077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1174095742504006</v>
+        <v>0.1154373130318111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1781655840378795</v>
+        <v>0.1784132517394398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>166</v>
@@ -1486,19 +1486,19 @@
         <v>187488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>164005</v>
+        <v>163607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212967</v>
+        <v>210746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3058461310198995</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2675396704944569</v>
+        <v>0.2668901692337652</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.347409640356924</v>
+        <v>0.3437876375916852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -1507,19 +1507,19 @@
         <v>275975</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>244144</v>
+        <v>246838</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>307527</v>
+        <v>307439</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2256279085243623</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1996046213548809</v>
+        <v>0.2018068119560199</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2514243653382819</v>
+        <v>0.2513521042167888</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>351318</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>334008</v>
+        <v>332948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>365498</v>
+        <v>365909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.820093976248342</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7796858928689887</v>
+        <v>0.7772112180899362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8531941836280034</v>
+        <v>0.8541529505510647</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>267</v>
@@ -1632,19 +1632,19 @@
         <v>295793</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>273792</v>
+        <v>273309</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>314552</v>
+        <v>315997</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6682342645885856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6185327513821404</v>
+        <v>0.6174401229127935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7106133639336535</v>
+        <v>0.7138780178714101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>587</v>
@@ -1653,19 +1653,19 @@
         <v>647111</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>619731</v>
+        <v>619019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>671993</v>
+        <v>673311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7429210579918808</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7114868120260165</v>
+        <v>0.7106699496006361</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7714867697088068</v>
+        <v>0.7730005758297749</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>77070</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62890</v>
+        <v>62479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94380</v>
+        <v>95440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.179906023751658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1468058163719967</v>
+        <v>0.1458470494489354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2203141071310117</v>
+        <v>0.2227887819100639</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -1703,19 +1703,19 @@
         <v>146855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128096</v>
+        <v>126651</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168856</v>
+        <v>169339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3317657354114144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2893866360663465</v>
+        <v>0.2861219821285899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3814672486178596</v>
+        <v>0.3825598770872066</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -1724,19 +1724,19 @@
         <v>223925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>199043</v>
+        <v>197725</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>251305</v>
+        <v>252017</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2570789420081191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2285132302911931</v>
+        <v>0.2269994241702248</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2885131879739836</v>
+        <v>0.2893300503993639</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>272902</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>259596</v>
+        <v>259952</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>283127</v>
+        <v>283876</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8809384499044941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8379854585842514</v>
+        <v>0.8391356996385513</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9139453730608492</v>
+        <v>0.9163623760599305</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>258</v>
@@ -1849,19 +1849,19 @@
         <v>267938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251475</v>
+        <v>251344</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>283606</v>
+        <v>284280</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7611800349948805</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7144089593795758</v>
+        <v>0.7140369426819543</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8056907163296312</v>
+        <v>0.8076056757046586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>506</v>
@@ -1870,19 +1870,19 @@
         <v>540842</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>520256</v>
+        <v>520112</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>561231</v>
+        <v>559415</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8172393160781486</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7861335663874951</v>
+        <v>0.7859152362844455</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8480480121357801</v>
+        <v>0.8453042156426546</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>36884</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26659</v>
+        <v>25910</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50190</v>
+        <v>49834</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1190615500955058</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08605462693915067</v>
+        <v>0.08363762394006934</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1620145414157482</v>
+        <v>0.1608643003614487</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -1920,19 +1920,19 @@
         <v>84066</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>68398</v>
+        <v>67724</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100529</v>
+        <v>100660</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2388199650051195</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1943092836703687</v>
+        <v>0.1923943242953413</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2855910406204241</v>
+        <v>0.2859630573180456</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -1941,19 +1941,19 @@
         <v>120949</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100560</v>
+        <v>102376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141535</v>
+        <v>141679</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1827606839218514</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.15195198786422</v>
+        <v>0.1546957843573455</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.213866433612505</v>
+        <v>0.2140847637155545</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>217892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>204856</v>
+        <v>205199</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>227632</v>
+        <v>227209</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8903557404952425</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8370881161723125</v>
+        <v>0.8384899318886773</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9301527186992757</v>
+        <v>0.9284255388083551</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>268</v>
@@ -2066,19 +2066,19 @@
         <v>296802</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>277789</v>
+        <v>279714</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>313109</v>
+        <v>313862</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7720350988888868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7225785140183015</v>
+        <v>0.7275861384823271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8144531405647736</v>
+        <v>0.8164124347762116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>463</v>
@@ -2087,19 +2087,19 @@
         <v>514694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>492525</v>
+        <v>494409</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>534426</v>
+        <v>535717</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8180579426865483</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7828216956884737</v>
+        <v>0.7858164733253882</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8494204526624036</v>
+        <v>0.8514724141829705</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>26833</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17093</v>
+        <v>17516</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39869</v>
+        <v>39526</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1096442595047576</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06984728130072429</v>
+        <v>0.07157446119164493</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1629118838276876</v>
+        <v>0.1615100681113228</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>78</v>
@@ -2137,19 +2137,19 @@
         <v>87639</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>71332</v>
+        <v>70579</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>106652</v>
+        <v>104727</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2279649011111133</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1855468594352268</v>
+        <v>0.1835875652237896</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2774214859816986</v>
+        <v>0.2724138615176739</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>100</v>
@@ -2158,19 +2158,19 @@
         <v>114472</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>94740</v>
+        <v>93449</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>136641</v>
+        <v>134757</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1819420573134517</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1505795473375964</v>
+        <v>0.1485275858170297</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2171783043115263</v>
+        <v>0.2141835266746119</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>2886901</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2842146</v>
+        <v>2845025</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2928189</v>
+        <v>2930440</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8486796192072714</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8355227235786861</v>
+        <v>0.8363689975158747</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8608174005569598</v>
+        <v>0.8614790309559898</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2396</v>
@@ -2283,19 +2283,19 @@
         <v>2589885</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2536982</v>
+        <v>2537173</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2641765</v>
+        <v>2639494</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.73330991961533</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7183307788989737</v>
+        <v>0.7183848724880929</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7479994395276697</v>
+        <v>0.7473563928724799</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5093</v>
@@ -2304,19 +2304,19 @@
         <v>5476786</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5405869</v>
+        <v>5401811</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5540248</v>
+        <v>5544177</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7899120539039995</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7796837855505699</v>
+        <v>0.7790984735029828</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7990651763573907</v>
+        <v>0.7996317895769098</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>514737</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>473449</v>
+        <v>471198</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>559492</v>
+        <v>556613</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1513203807927286</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1391825994430401</v>
+        <v>0.1385209690440102</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1644772764213137</v>
+        <v>0.1636310024841253</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>876</v>
@@ -2354,19 +2354,19 @@
         <v>941889</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>890009</v>
+        <v>892280</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>994792</v>
+        <v>994601</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.26669008038467</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2520005604723302</v>
+        <v>0.2526436071275203</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2816692211010262</v>
+        <v>0.2816151275119073</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1364</v>
@@ -2375,19 +2375,19 @@
         <v>1456626</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1393164</v>
+        <v>1389235</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1527543</v>
+        <v>1531601</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2100879460960004</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2009348236426092</v>
+        <v>0.2003682104230902</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2203162144494301</v>
+        <v>0.2209015264970167</v>
       </c>
     </row>
     <row r="27">
@@ -2722,19 +2722,19 @@
         <v>356738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>341165</v>
+        <v>341781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>370489</v>
+        <v>371590</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8566548148095801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8192568732751737</v>
+        <v>0.8207367795418415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8896746861706708</v>
+        <v>0.8923176207565368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>315</v>
@@ -2743,19 +2743,19 @@
         <v>307983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>290842</v>
+        <v>291525</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>322600</v>
+        <v>323231</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7838491744220426</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7402236039874508</v>
+        <v>0.741962344074346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8210510536928628</v>
+        <v>0.8226579312123513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>651</v>
@@ -2764,19 +2764,19 @@
         <v>664721</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>642710</v>
+        <v>641669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>684922</v>
+        <v>685341</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8213099093767467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7941130294473977</v>
+        <v>0.7928271788912026</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8462694084412429</v>
+        <v>0.8467868813883336</v>
       </c>
     </row>
     <row r="5">
@@ -2793,19 +2793,19 @@
         <v>59694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45943</v>
+        <v>44842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>75267</v>
+        <v>74651</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1433451851904199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1103253138293293</v>
+        <v>0.1076823792434632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1807431267248264</v>
+        <v>0.1792632204581587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -2814,19 +2814,19 @@
         <v>84928</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70311</v>
+        <v>69680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102069</v>
+        <v>101386</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2161508255779574</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1789489463071372</v>
+        <v>0.1773420687876487</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2597763960125492</v>
+        <v>0.258037655925654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -2835,19 +2835,19 @@
         <v>144622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>124421</v>
+        <v>124002</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166633</v>
+        <v>167674</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1786900906232533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1537305915587575</v>
+        <v>0.1532131186116663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2058869705526027</v>
+        <v>0.207172821108797</v>
       </c>
     </row>
     <row r="6">
@@ -2939,19 +2939,19 @@
         <v>480472</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>460411</v>
+        <v>461371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498867</v>
+        <v>498510</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8270089411413886</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7924803765398416</v>
+        <v>0.7941317807053568</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8586716622419999</v>
+        <v>0.8580576033020753</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>442</v>
@@ -2960,19 +2960,19 @@
         <v>429677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>411230</v>
+        <v>406870</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>450054</v>
+        <v>447834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7682978445655956</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7353122688745775</v>
+        <v>0.7275157446523689</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8047326882196875</v>
+        <v>0.80076397007848</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>905</v>
@@ -2981,19 +2981,19 @@
         <v>910149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>878737</v>
+        <v>879748</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>936090</v>
+        <v>935292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7982124625424399</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7706637947333339</v>
+        <v>0.7715501302750958</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8209629987982804</v>
+        <v>0.8202634072769884</v>
       </c>
     </row>
     <row r="8">
@@ -3010,19 +3010,19 @@
         <v>100503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82108</v>
+        <v>82465</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>120564</v>
+        <v>119604</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1729910588586115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.141328337758</v>
+        <v>0.1419423966979246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2075196234601583</v>
+        <v>0.2058682192946431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -3031,19 +3031,19 @@
         <v>129582</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>109205</v>
+        <v>111425</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>148029</v>
+        <v>152389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2317021554344045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1952673117803125</v>
+        <v>0.19923602992152</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2646877311254225</v>
+        <v>0.2724842553476312</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>228</v>
@@ -3052,19 +3052,19 @@
         <v>230085</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>204144</v>
+        <v>204942</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>261497</v>
+        <v>260486</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2017875374575601</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1790370012017195</v>
+        <v>0.1797365927230115</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.229336205266666</v>
+        <v>0.2284498697249042</v>
       </c>
     </row>
     <row r="9">
@@ -3156,19 +3156,19 @@
         <v>544041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>523154</v>
+        <v>524252</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>563945</v>
+        <v>563329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.822417306870872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7908434286415602</v>
+        <v>0.7925034633748868</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8525061541648603</v>
+        <v>0.8515760484701778</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>494</v>
@@ -3177,19 +3177,19 @@
         <v>491167</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>468538</v>
+        <v>469995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>511438</v>
+        <v>513557</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7517953395620381</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7171581630192055</v>
+        <v>0.7193877033633456</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7828218995678141</v>
+        <v>0.7860647041939626</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1017</v>
@@ -3198,19 +3198,19 @@
         <v>1035208</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1003187</v>
+        <v>1002857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1064451</v>
+        <v>1061245</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7873262048468914</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7629724209702838</v>
+        <v>0.7627214246435055</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8095670117407993</v>
+        <v>0.8071286125047843</v>
       </c>
     </row>
     <row r="11">
@@ -3227,19 +3227,19 @@
         <v>117473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97569</v>
+        <v>98185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138360</v>
+        <v>137262</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.177582693129128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1474938458351397</v>
+        <v>0.1484239515298222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2091565713584398</v>
+        <v>0.2074965366251132</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>163</v>
@@ -3248,19 +3248,19 @@
         <v>162159</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141888</v>
+        <v>139769</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184788</v>
+        <v>183331</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2482046604379619</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2171781004321859</v>
+        <v>0.2139352958060374</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2828418369807946</v>
+        <v>0.2806122966366545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>271</v>
@@ -3269,19 +3269,19 @@
         <v>279632</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>250389</v>
+        <v>253595</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>311653</v>
+        <v>311983</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2126737951531086</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1904329882592007</v>
+        <v>0.1928713874952157</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2370275790297166</v>
+        <v>0.2372785753564945</v>
       </c>
     </row>
     <row r="12">
@@ -3373,19 +3373,19 @@
         <v>528544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>508792</v>
+        <v>507753</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>546672</v>
+        <v>546694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8248741372644014</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7940475937954085</v>
+        <v>0.79242612414972</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8531652466456812</v>
+        <v>0.8532002727682508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>415</v>
@@ -3394,19 +3394,19 @@
         <v>444443</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>420404</v>
+        <v>417083</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>466956</v>
+        <v>466691</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6929528250405008</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6554734984824901</v>
+        <v>0.6502945403906639</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7280549203855355</v>
+        <v>0.7276416918230161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>888</v>
@@ -3415,19 +3415,19 @@
         <v>972986</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>939389</v>
+        <v>940220</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1001124</v>
+        <v>1006095</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7588816468147866</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7326770544962506</v>
+        <v>0.7333253976952053</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.780827773045793</v>
+        <v>0.7847046044575697</v>
       </c>
     </row>
     <row r="14">
@@ -3444,19 +3444,19 @@
         <v>112213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94085</v>
+        <v>94063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131965</v>
+        <v>133004</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1751258627355986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1468347533543186</v>
+        <v>0.1467997272317491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2059524062045913</v>
+        <v>0.2075738758502798</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -3465,19 +3465,19 @@
         <v>196932</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174419</v>
+        <v>174684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>220971</v>
+        <v>224292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3070471749594992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2719450796144645</v>
+        <v>0.272358308176984</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3445265015175099</v>
+        <v>0.349705459609336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>284</v>
@@ -3486,19 +3486,19 @@
         <v>309146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>281008</v>
+        <v>276037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>342743</v>
+        <v>341912</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2411183531852134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2191722269542073</v>
+        <v>0.2152953955424304</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2673229455037496</v>
+        <v>0.2666746023047947</v>
       </c>
     </row>
     <row r="15">
@@ -3590,19 +3590,19 @@
         <v>404849</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>385577</v>
+        <v>387224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>419042</v>
+        <v>419436</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8561392124602024</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8153845360711685</v>
+        <v>0.8188674750139363</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8861541971955254</v>
+        <v>0.8869876531724363</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -3611,19 +3611,19 @@
         <v>344002</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>321731</v>
+        <v>323306</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>365116</v>
+        <v>366840</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7015614105817024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6561424601157801</v>
+        <v>0.6593539964180593</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7446224022580933</v>
+        <v>0.7481380432051773</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>661</v>
@@ -3632,19 +3632,19 @@
         <v>748850</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>721749</v>
+        <v>719579</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>775489</v>
+        <v>774643</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7774492768972056</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7493131034785553</v>
+        <v>0.7470604156659558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8051051385421812</v>
+        <v>0.8042275572660438</v>
       </c>
     </row>
     <row r="17">
@@ -3661,19 +3661,19 @@
         <v>68028</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53835</v>
+        <v>53441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>87300</v>
+        <v>85653</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1438607875397975</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1138458028044747</v>
+        <v>0.1130123468275634</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1846154639288316</v>
+        <v>0.1811325249860637</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -3682,19 +3682,19 @@
         <v>146335</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125221</v>
+        <v>123497</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168606</v>
+        <v>167031</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2984385894182977</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2553775977419067</v>
+        <v>0.2518619567948227</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3438575398842199</v>
+        <v>0.3406460035819407</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -3703,19 +3703,19 @@
         <v>214364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>187725</v>
+        <v>188571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>241465</v>
+        <v>243635</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2225507231027945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1948948614578187</v>
+        <v>0.1957724427339557</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2506868965214448</v>
+        <v>0.2529395843340437</v>
       </c>
     </row>
     <row r="18">
@@ -3807,19 +3807,19 @@
         <v>285766</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>272361</v>
+        <v>271060</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>297070</v>
+        <v>297033</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8662417807728888</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8256076031493366</v>
+        <v>0.8216635391906549</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9005080059601998</v>
+        <v>0.9003938059985614</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>249</v>
@@ -3828,19 +3828,19 @@
         <v>267947</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>248730</v>
+        <v>250385</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>285027</v>
+        <v>284016</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7226312383071408</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6708054198245862</v>
+        <v>0.6752694844390748</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.768695513258665</v>
+        <v>0.7659697369049208</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>526</v>
@@ -3849,19 +3849,19 @@
         <v>553714</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>531155</v>
+        <v>530302</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>573843</v>
+        <v>574195</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7902450170444144</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7580504971616144</v>
+        <v>0.7568329728746048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8189726673946149</v>
+        <v>0.81947536760776</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>44126</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32822</v>
+        <v>32859</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57531</v>
+        <v>58832</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1337582192271111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09949199403980043</v>
+        <v>0.09960619400143861</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1743923968506636</v>
+        <v>0.1783364608093454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -3899,19 +3899,19 @@
         <v>102846</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85766</v>
+        <v>86777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122063</v>
+        <v>120408</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2773687616928591</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2313044867413347</v>
+        <v>0.2340302630950792</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3291945801754137</v>
+        <v>0.3247305155609252</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>143</v>
@@ -3920,19 +3920,19 @@
         <v>146972</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>126843</v>
+        <v>126491</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>169531</v>
+        <v>170384</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2097549829555856</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1810273326053851</v>
+        <v>0.1805246323922401</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2419495028383858</v>
+        <v>0.2431670271253954</v>
       </c>
     </row>
     <row r="21">
@@ -4024,19 +4024,19 @@
         <v>226223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>215788</v>
+        <v>216472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>235223</v>
+        <v>234481</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8860410936486685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8451701743730103</v>
+        <v>0.8478483044360166</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9212903837949682</v>
+        <v>0.9183828735464781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>218</v>
@@ -4045,19 +4045,19 @@
         <v>291589</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>271862</v>
+        <v>273015</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>309810</v>
+        <v>311740</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7477561850641131</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.697166781551441</v>
+        <v>0.7001251990677221</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7944827566155404</v>
+        <v>0.7994321815801092</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>483</v>
@@ -4066,19 +4066,19 @@
         <v>517812</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>496806</v>
+        <v>495482</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>539864</v>
+        <v>539497</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8024722670897464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7699186181461244</v>
+        <v>0.7678660176180108</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8366464736429382</v>
+        <v>0.8360787802772233</v>
       </c>
     </row>
     <row r="23">
@@ -4095,19 +4095,19 @@
         <v>29096</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20096</v>
+        <v>20838</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>39531</v>
+        <v>38847</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1139589063513315</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07870961620503171</v>
+        <v>0.08161712645352208</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1548298256269895</v>
+        <v>0.1521516955639834</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>75</v>
@@ -4116,19 +4116,19 @@
         <v>98363</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>80142</v>
+        <v>78212</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>118090</v>
+        <v>116937</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2522438149358869</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2055172433844597</v>
+        <v>0.2005678184198909</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3028332184485598</v>
+        <v>0.299874800932278</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>110</v>
@@ -4137,19 +4137,19 @@
         <v>127459</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>105407</v>
+        <v>105774</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>148465</v>
+        <v>149789</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1975277329102536</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1633535263570617</v>
+        <v>0.1639212197227765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2300813818538755</v>
+        <v>0.2321339823819892</v>
       </c>
     </row>
     <row r="24">
@@ -4241,19 +4241,19 @@
         <v>2826631</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2782287</v>
+        <v>2781413</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2866530</v>
+        <v>2868051</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8418193306372436</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8286130561075479</v>
+        <v>0.8283526230432625</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8537020422890653</v>
+        <v>0.8541549090160839</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2433</v>
@@ -4262,19 +4262,19 @@
         <v>2576809</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2520654</v>
+        <v>2523727</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2623618</v>
+        <v>2632707</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7366616000648941</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7206079959339199</v>
+        <v>0.7214863274920306</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7500434816736201</v>
+        <v>0.7526417624554893</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5131</v>
@@ -4283,19 +4283,19 @@
         <v>5403440</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5326679</v>
+        <v>5335318</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5469743</v>
+        <v>5470915</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7881652949642197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7769686467501283</v>
+        <v>0.7782287879894464</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7978364528565328</v>
+        <v>0.7980074749237784</v>
       </c>
     </row>
     <row r="26">
@@ -4312,19 +4312,19 @@
         <v>531133</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>491234</v>
+        <v>489713</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>575477</v>
+        <v>576351</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1581806693627564</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1462979577109347</v>
+        <v>0.145845090983916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1713869438924522</v>
+        <v>0.1716473769567373</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>863</v>
@@ -4333,19 +4333,19 @@
         <v>921146</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>874337</v>
+        <v>865248</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>977301</v>
+        <v>974228</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2633383999351059</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.24995651832638</v>
+        <v>0.2473582375445108</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2793920040660801</v>
+        <v>0.27851367250797</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1362</v>
@@ -4354,19 +4354,19 @@
         <v>1452279</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1385976</v>
+        <v>1384804</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1529040</v>
+        <v>1520401</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2118347050357803</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2021635471434671</v>
+        <v>0.2019925250762215</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2230313532498716</v>
+        <v>0.2217712120105536</v>
       </c>
     </row>
     <row r="27">
@@ -4701,19 +4701,19 @@
         <v>380827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>363979</v>
+        <v>362921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>392869</v>
+        <v>392060</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9417018297954616</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9000415077840644</v>
+        <v>0.8974250788736096</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9714799249000853</v>
+        <v>0.9694788384552421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -4722,19 +4722,19 @@
         <v>312811</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>292741</v>
+        <v>291992</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328175</v>
+        <v>327942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8723032437296234</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8163385876181878</v>
+        <v>0.8142493405597782</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.91514914349623</v>
+        <v>0.914499848706393</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>341</v>
@@ -4743,19 +4743,19 @@
         <v>693638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>667300</v>
+        <v>669953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>714784</v>
+        <v>715249</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9090853686681033</v>
+        <v>0.9090853686681034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8745669391287371</v>
+        <v>0.8780438401483314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9367997568085343</v>
+        <v>0.9374096840115345</v>
       </c>
     </row>
     <row r="5">
@@ -4772,19 +4772,19 @@
         <v>23576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11534</v>
+        <v>12343</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40424</v>
+        <v>41482</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05829817020453857</v>
+        <v>0.05829817020453858</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02852007509991476</v>
+        <v>0.03052116154475797</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09995849221593582</v>
+        <v>0.1025749211263904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -4793,19 +4793,19 @@
         <v>45792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30428</v>
+        <v>30661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65862</v>
+        <v>66611</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1276967562703766</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08485085650376996</v>
+        <v>0.08550015129360705</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.183661412381812</v>
+        <v>0.185750659440222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -4814,19 +4814,19 @@
         <v>69368</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48222</v>
+        <v>47757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>95706</v>
+        <v>93053</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09091463133189652</v>
+        <v>0.09091463133189653</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06320024319146553</v>
+        <v>0.06259031598846558</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1254330608712631</v>
+        <v>0.1219561598516686</v>
       </c>
     </row>
     <row r="6">
@@ -4918,19 +4918,19 @@
         <v>415949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>397153</v>
+        <v>395849</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>433674</v>
+        <v>432502</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8722126009147172</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8327985168032777</v>
+        <v>0.8300638970263221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.909379087635748</v>
+        <v>0.9069217421671082</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>387</v>
@@ -4939,19 +4939,19 @@
         <v>415117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>395292</v>
+        <v>396226</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>431112</v>
+        <v>431116</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.838151194071475</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7981233773520324</v>
+        <v>0.8000087013980433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8704468786264259</v>
+        <v>0.8704541918615928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>651</v>
@@ -4960,19 +4960,19 @@
         <v>831066</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>801496</v>
+        <v>803146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>854141</v>
+        <v>855735</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8548597919772424</v>
+        <v>0.8548597919772423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8244426527064149</v>
+        <v>0.8261400614730373</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8785950142993445</v>
+        <v>0.8802343871748085</v>
       </c>
     </row>
     <row r="8">
@@ -4989,19 +4989,19 @@
         <v>60941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43216</v>
+        <v>44388</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79737</v>
+        <v>81041</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1277873990852829</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09062091236425172</v>
+        <v>0.09307825783289184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1672014831967222</v>
+        <v>0.1699361029736778</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -5010,19 +5010,19 @@
         <v>80160</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64165</v>
+        <v>64161</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>99985</v>
+        <v>99051</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.161848805928525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.129553121373574</v>
+        <v>0.1295458081384072</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2018766226479676</v>
+        <v>0.199991298601957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>106</v>
@@ -5031,19 +5031,19 @@
         <v>141101</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>118026</v>
+        <v>116432</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>170671</v>
+        <v>169021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1451402080227577</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1214049857006552</v>
+        <v>0.1197656128251915</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1755573472935851</v>
+        <v>0.1738599385269626</v>
       </c>
     </row>
     <row r="9">
@@ -5135,19 +5135,19 @@
         <v>514966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>494087</v>
+        <v>493502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>534644</v>
+        <v>534716</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8336968637269525</v>
+        <v>0.8336968637269524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7998945331290713</v>
+        <v>0.7989480541586081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8655533346515484</v>
+        <v>0.8656700616180862</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>652</v>
@@ -5156,19 +5156,19 @@
         <v>473754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>453723</v>
+        <v>456026</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>489970</v>
+        <v>492008</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7688160812689364</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7363093700537642</v>
+        <v>0.7400466208097303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.795130278729353</v>
+        <v>0.7984374361234315</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1108</v>
@@ -5177,19 +5177,19 @@
         <v>988721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>961781</v>
+        <v>961126</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1014444</v>
+        <v>1012066</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8012952980732782</v>
+        <v>0.8012952980732784</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7794621247550357</v>
+        <v>0.7789319435060253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8221427213475645</v>
+        <v>0.8202153581487716</v>
       </c>
     </row>
     <row r="11">
@@ -5206,19 +5206,19 @@
         <v>102724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83046</v>
+        <v>82974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123603</v>
+        <v>124188</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1663031362730476</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1344466653484518</v>
+        <v>0.1343299383819138</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2001054668709288</v>
+        <v>0.2010519458413918</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>187</v>
@@ -5227,19 +5227,19 @@
         <v>142459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126243</v>
+        <v>124205</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162490</v>
+        <v>160187</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2311839187310636</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.204869721270647</v>
+        <v>0.2015625638765685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2636906299462361</v>
+        <v>0.2599533791902699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>274</v>
@@ -5248,19 +5248,19 @@
         <v>245182</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219459</v>
+        <v>221837</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272122</v>
+        <v>272777</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1987047019267217</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.177857278652435</v>
+        <v>0.1797846418512287</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2205378752449644</v>
+        <v>0.2210680564939748</v>
       </c>
     </row>
     <row r="12">
@@ -5352,19 +5352,19 @@
         <v>568638</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>546850</v>
+        <v>546717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>588615</v>
+        <v>591053</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.81293749470112</v>
+        <v>0.8129374947011196</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7817889370853397</v>
+        <v>0.7815998223884152</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8414975705834407</v>
+        <v>0.8449828059364077</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>842</v>
@@ -5373,19 +5373,19 @@
         <v>537258</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>518852</v>
+        <v>517575</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>555776</v>
+        <v>556728</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7325073380994885</v>
+        <v>0.7325073380994886</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7074125281216391</v>
+        <v>0.7056712181204067</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7577551325751655</v>
+        <v>0.7590527537745674</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1387</v>
@@ -5394,19 +5394,19 @@
         <v>1105896</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1077367</v>
+        <v>1076235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1133841</v>
+        <v>1136131</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7717691749170986</v>
+        <v>0.7717691749170985</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7518598181970474</v>
+        <v>0.7510697924857256</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7912708923149913</v>
+        <v>0.7928690329712449</v>
       </c>
     </row>
     <row r="14">
@@ -5423,19 +5423,19 @@
         <v>130847</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110870</v>
+        <v>108432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152635</v>
+        <v>152768</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1870625052988802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.158502429416559</v>
+        <v>0.1550171940635923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2182110629146601</v>
+        <v>0.2184001776115847</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>294</v>
@@ -5444,19 +5444,19 @@
         <v>196193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>177675</v>
+        <v>176723</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>214599</v>
+        <v>215876</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2674926619005112</v>
+        <v>0.2674926619005113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2422448674248346</v>
+        <v>0.2409472462254325</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2925874718783614</v>
+        <v>0.2943287818795933</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>413</v>
@@ -5465,19 +5465,19 @@
         <v>327040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>299095</v>
+        <v>296805</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>355569</v>
+        <v>356701</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2282308250829015</v>
+        <v>0.2282308250829014</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2087291076850087</v>
+        <v>0.2071309670287551</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2481401818029526</v>
+        <v>0.2489302075142746</v>
       </c>
     </row>
     <row r="15">
@@ -5569,19 +5569,19 @@
         <v>483544</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>465114</v>
+        <v>467307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>502187</v>
+        <v>502981</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8008048265221765</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7702827176483411</v>
+        <v>0.7739134051841303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8316789365012558</v>
+        <v>0.8329940701719596</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>650</v>
@@ -5590,19 +5590,19 @@
         <v>388678</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>371070</v>
+        <v>370014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>407373</v>
+        <v>406294</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6433509326558072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.614205880594802</v>
+        <v>0.6124579138522712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6742960696534811</v>
+        <v>0.672509445499384</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1175</v>
@@ -5611,19 +5611,19 @@
         <v>872222</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>846249</v>
+        <v>845453</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>898475</v>
+        <v>899359</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7220568372424224</v>
+        <v>0.7220568372424222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7005554759166542</v>
+        <v>0.6998960146223575</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7437898100817874</v>
+        <v>0.7445212821180041</v>
       </c>
     </row>
     <row r="17">
@@ -5640,19 +5640,19 @@
         <v>120279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101636</v>
+        <v>100842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138709</v>
+        <v>136516</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1991951734778236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1683210634987443</v>
+        <v>0.1670059298280402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2297172823516591</v>
+        <v>0.2260865948158698</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>345</v>
@@ -5661,19 +5661,19 @@
         <v>215468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196773</v>
+        <v>197852</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>233076</v>
+        <v>234132</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3566490673441928</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.325703930346519</v>
+        <v>0.3274905545006159</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3857941194051981</v>
+        <v>0.3875420861477288</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>478</v>
@@ -5682,19 +5682,19 @@
         <v>335747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>309494</v>
+        <v>308610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>361720</v>
+        <v>362516</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2779431627575776</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2562101899182128</v>
+        <v>0.2554787178819958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2994445240833461</v>
+        <v>0.3001039853776424</v>
       </c>
     </row>
     <row r="18">
@@ -5786,19 +5786,19 @@
         <v>328777</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>315561</v>
+        <v>316004</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>340618</v>
+        <v>340727</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8133621511753534</v>
+        <v>0.8133621511753536</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7806665035498301</v>
+        <v>0.7817613993063761</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8426547403604799</v>
+        <v>0.8429253705276132</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>591</v>
@@ -5807,19 +5807,19 @@
         <v>308273</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>293192</v>
+        <v>294846</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>320824</v>
+        <v>322499</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7030197868917482</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.668627538903504</v>
+        <v>0.6723987410789866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7316434990551461</v>
+        <v>0.7354635369831903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1051</v>
@@ -5828,19 +5828,19 @@
         <v>637050</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>616670</v>
+        <v>615747</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>656918</v>
+        <v>655288</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7559468995225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7317630574436351</v>
+        <v>0.7306681931799046</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7795225343891699</v>
+        <v>0.7775881330929565</v>
       </c>
     </row>
     <row r="20">
@@ -5857,19 +5857,19 @@
         <v>75443</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63602</v>
+        <v>63493</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88659</v>
+        <v>88216</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1866378488246465</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1573452596395201</v>
+        <v>0.1570746294723868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2193334964501697</v>
+        <v>0.2182386006936239</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -5878,19 +5878,19 @@
         <v>130225</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>117674</v>
+        <v>115999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>145306</v>
+        <v>143652</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2969802131082518</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2683565009448538</v>
+        <v>0.2645364630168095</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3313724610964962</v>
+        <v>0.3276012589210135</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>342</v>
@@ -5899,19 +5899,19 @@
         <v>205668</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>185800</v>
+        <v>187430</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>226048</v>
+        <v>226971</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2440531004775</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2204774656108305</v>
+        <v>0.2224118669070435</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2682369425563651</v>
+        <v>0.2693318068200955</v>
       </c>
     </row>
     <row r="21">
@@ -6003,19 +6003,19 @@
         <v>222588</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>208648</v>
+        <v>209352</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>235204</v>
+        <v>234349</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7195450905428789</v>
+        <v>0.7195450905428787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6744804932363133</v>
+        <v>0.6767557493311487</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7603264223453142</v>
+        <v>0.757561575638574</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>592</v>
@@ -6024,19 +6024,19 @@
         <v>305782</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>290328</v>
+        <v>290735</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>319969</v>
+        <v>319901</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6626808124763655</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6291890958958807</v>
+        <v>0.6300715640787379</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6934262848894281</v>
+        <v>0.6932792324300872</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>919</v>
@@ -6045,19 +6045,19 @@
         <v>528371</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>506494</v>
+        <v>507076</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>546445</v>
+        <v>545703</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6855028860124042</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6571202418166067</v>
+        <v>0.6578753605367237</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7089526545028183</v>
+        <v>0.7079893123034552</v>
       </c>
     </row>
     <row r="23">
@@ -6074,19 +6074,19 @@
         <v>86758</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74142</v>
+        <v>74997</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>100698</v>
+        <v>99994</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2804549094571211</v>
+        <v>0.2804549094571212</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2396735776546854</v>
+        <v>0.2424384243614258</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3255195067636866</v>
+        <v>0.3232442506688512</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -6095,19 +6095,19 @@
         <v>155650</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>141463</v>
+        <v>141531</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>171104</v>
+        <v>170697</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3373191875236345</v>
+        <v>0.3373191875236344</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3065737151105716</v>
+        <v>0.3067207675699129</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3708109041041191</v>
+        <v>0.369928435921262</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>414</v>
@@ -6116,19 +6116,19 @@
         <v>242407</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>224333</v>
+        <v>225075</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>264284</v>
+        <v>263702</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3144971139875958</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2910473454971816</v>
+        <v>0.2920106876965447</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3428797581833932</v>
+        <v>0.3421246394632759</v>
       </c>
     </row>
     <row r="24">
@@ -6220,19 +6220,19 @@
         <v>2915291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2869599</v>
+        <v>2868162</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2962724</v>
+        <v>2964273</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8291834018817611</v>
+        <v>0.8291834018817612</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.816187322381325</v>
+        <v>0.8157785977722531</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8426746019202755</v>
+        <v>0.8431150226549353</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3895</v>
@@ -6241,19 +6241,19 @@
         <v>2741673</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2694643</v>
+        <v>2695051</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2790230</v>
+        <v>2789002</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.739469830589527</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7267852252604039</v>
+        <v>0.7268951485169785</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7525662586504011</v>
+        <v>0.7522350662302815</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6632</v>
@@ -6262,19 +6262,19 @@
         <v>5656964</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5584684</v>
+        <v>5588124</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5720795</v>
+        <v>5721669</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7831358020422057</v>
+        <v>0.7831358020422056</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7731295489654819</v>
+        <v>0.7736057071347595</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7919723987592674</v>
+        <v>0.7920933387191219</v>
       </c>
     </row>
     <row r="26">
@@ -6291,19 +6291,19 @@
         <v>600567</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>553134</v>
+        <v>551585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>646259</v>
+        <v>647696</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1708165981182388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1573253980797246</v>
+        <v>0.1568849773450648</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.183812677618675</v>
+        <v>0.184221402227747</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1437</v>
@@ -6312,19 +6312,19 @@
         <v>965947</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>917390</v>
+        <v>918618</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1012977</v>
+        <v>1012569</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.260530169410473</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2474337413495989</v>
+        <v>0.2477649337697185</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.273214774739596</v>
+        <v>0.2731048514830218</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2062</v>
@@ -6333,19 +6333,19 @@
         <v>1566514</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1502683</v>
+        <v>1501809</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1638794</v>
+        <v>1635354</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2168641979577944</v>
+        <v>0.2168641979577945</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2080276012407326</v>
+        <v>0.2079066612808781</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2268704510345181</v>
+        <v>0.2263942928652405</v>
       </c>
     </row>
     <row r="27">
